--- a/Testdata/TC_72.xlsx
+++ b/Testdata/TC_72.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>+hkAAB+LCAAAAAAAAAOlGU1v48b1rxA+NQeJpOS1vcYsA0uyXaGSZVh0vZtLMSLHFmuSo5BD27rtpUizaU5NguY7e0pRdNMcWqDItul/CSrv9tS/0DcfHH5I3kTbhWFz3te8ee/N+5hFb95EoXFFkjSg8YMNu2ltGCT2qB/EFw82MnbesLc23nTQ/o1HwmOc4IgwIDaAK053b9LgwcaUsdmuaV5fXzev202aXJgty7LNh8PB2JuSCDeCOGU49siG5vJ/nGvDQV0/GhKGfcyw5Hyw0R/3m10SeD2ADXGML0jS7GRpEJM03Y9ZwAKScs6EYEa6veEv5cGcVnOraSNzCV5QdrIg9CVdhVLCFR1sS9wgIk7Lsnca1k6jbbt2a9fa3t20mu2t9ls5oyZEA5yyMUmuAk8AxgxHM8Fu7bRtu2Vtb1rIXEkEsgoDOGgU+ifkKkiJ3yVhmK5lEVM5cM9jcOr1jAnqlXiVoNdX4TDBs6kbsJCsp0an5xpRrHQphDjogCbEA/u9lkpH5HqUKLO6swFg3WmQsHkPz9eWdZqSZDTjRlqP1UE9GrO9kCTsdAa+Jj6EAiAclmQEmXcgC6ZekHrwHcQZ8Z1zHKZlpgoSndHkMp1hjxzBPTa5jOs4pNiHgGNBygIvLQQsYdBxQmcgEnbv0NA/ALE59QqMlt2Pwch84w6ll3XxVSQSfhUeBq9GWMtfgqPxlF6P4nA+ziaplwQT4vc6OfVKHOJXUnF3s5TRCLQoQEjCSpDh0JzDP7iFdQzqES+IcHgcgiVTpw2CKgC0lzF6HrAuDbMo1iatQdEZHMolN0z5WS/RCBwcc7vTuB/XhKzEVTlO6HUeO8twYYYSeC/18jhbRtSJewDLHbiMET7hhzwIQqgRZW+UoNW4GE8JYSuDQmIQT4cHvOo4nTnfE5kFBEFwQoQD1LHv399uWDb8uJa1K35gZ41G+7EvPqDGbDXsFs/bBV2OREdZNJrALb4SZ3JswNVACE4RdkIcXwL0LGDTo71c+xUYJM98J/0yDsF9nYV4LsDaLmUY6sdemPlEpoF+fC5ikuumqO/EoyXQAG62g3A8d+czng7MOyh65BxnIVQoBonkosgRNTDaSy/rNGUQOk3C3McOr/8pNACeHzU9SJG8yDU9GnGACXX3bIzMMj3P8x7Zjy8GOL7IIJNqO9bhOsJ4DnATHKf8ODpx1oJtNRHK/SITuiOdNcpEOElnUcAis0aHXBLNaILDIRgmOMhiUTRVVQALDzGbqhVc3pB4uZHNglVzVTXLFf8xMnEN5TF4li9fwxJUUPHDyF6jRFQAET/nkPpQ7nEYTJJKmK3EgcuKIpgHHD/emgUx9wI0nJBhfkHmvAspFgrOo9axc4RYoS6o5IxPNnda96ytHUjefI3EkQ8ptLlxBKRGj0zYrtGjEeGlbdfodHaNCnpG04CBe6Wt1AV8bSllfnSQkLczaLHnQrUhBHAFUMVDir0IYhwu0WlEQe8Moe5Ow3mJUp58QD0gvP3gX4vvPls8/m7x5Ol///HJ4tN/Ln7zNXx0OvBLIZ/94fbP38tTSybk4klIhGJuZ2fHam9CAGoQUnkDyr+feUzAHj0S7YBeI9XXikV3v989HHREotHAnJ23Ghm/JAM8p1mxHMvDiI2Ep808QCSJ4+aJS60r2B7hPYC8nbyFvSJV6jL+LkZpixfPv37x/Nmd3MpgRdGBWtNqWJs/oSbZbV6TrJU1iY8GsvPLB497fPCw2yXiGg06gfkJGj1tp77vtG3rvrW9bdk6yfs6rlcR1VFKkosvzBqfBHVpFrNkrkOgvM6RIv5duCwaLW9EaaFC9W/vvfzLhxUqZV0FqUoB5WiWyGgy84UQfXTiGuPR6Ul333D3xzxOClyJTgp/BbHaXd+rctAs37pKSK2CSnGvZKzveJjQbLaUMQroCsqVuWMZW+MUtllWrcCtoFde++y3qxjUSVTMnMYB07NcGYYqGAkq4dUV/Pj7f//9ncWzLxdPvrp9793F0w8W7z+tyFG76UEHQhcuSHmpIxmymKosNQg6GwubXlq/KlUSBeRN4jENYpY6tn1PNIhqiYDX5uLEX9SPoLoJycJsAK9B0M9xun/D1GV1jpBZBYCiMwyFlRattAbIvFyY9z+ff3H76V9vP/r25Tt/Wjz54+J3H714/uXLb57Km3T74be373+jMnc9uQtdeIMuOz5DTHyewW+Ywcu08cPj3xsxZQb0F0YmsswPjz8uCeOKik6kkAz9m1akqsISaZmZ8xklVbQOFT7NImt9l5eltqZQhYnOAq/Y5K0GFwVNqCEQP+u7jSwlBoXW6Q04SZW4YP6pfIpFlsnjbatltxRWasOPMMFpyfSHIZ3g0MgRYp6qkVS4Xs1Q0Ir9Dgejzt6gIJFKjBIfxi+LD4X8A+X9Iy8T/TRf6SmigAAWejwvC/kEvES2jNKSS+nMVLPk+Z7PXxYdyxLDWrXmVShgIE8S2e3E6nlynM2g883n5bvx4iWm1Oseyba03P0W636viod1CQvFrYrmAIEXGUqhZLbqp3xslZ3rETdNsQRc5fUGzKFeIGX3dBWAS0yeePaThCYrs0+BycmG0DRDRjELi2sa4VPZYPuFr3JAnvH0hxzz1Alpj4SErfc8ZxbcQ+iAX5cXfL8uaz8dhb4y5npThjZLIaD8RskD5f99opTBtpck0Czx94y13xTzKfUEhts1tZFHEYx82oPd1aPfQZCk7CHPBOpLQh5pyCPZdT50Nrdlb/lQAgSF/FCHVNLNipr51WXypZiGgyAK1pwArfx+V4WALWcz2Zb114sUXlqOyA00jSUJkBQnv4aywceY9aTJgIVcqvn5w0waXEzZuoptTzDxycRqeBPSamz60NzfJwQmAht+Y68FY8Q9/qqjhEPmCMj1mpuYucOK/8Fx/gcRbgbr+hkAAA==</t>
+          <t>0RsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD3d12Lk5U06v4kmBhx1HskJl9Qe3uclyku8t0Vyfx20irZWGWfWJ3xcLCMryAELPsA0hoBy3/ZYUzwxN/gVOXvtqZocMoynSd75xTVafOrSronVvf065xGBEaPNoy68aWhgOHuiS4fLQVs1nN3N16x0K9Wwd7p3Zo+5gBswZSQXRwG5FHW3PGFge6fnNzU79p1ml4qTcMw9QfDwdjZ459u0aCiNmBg7dSKfftUlsW6rj+EDPbtZktJR9t9cf9egcTpwu0oR3Ylzist+OIBDiKegEjjOCIS4bYZrjTHf5Absxq1HfrJtLX6BlnOyaeK/kKnJKu+GBaPCE+thpGw6gZrVpje2LsHWzvHew06vvmzruJYMqIBnbExji8Jo4gjJntL4S40WpsG3vbezsNpG9kAl2ZASw08twzfE0i7Haw50WVLKKrAzx0GOy6mjENpOdklaKHL+E4tBfzCWEerip+REPsgKEeNPcJvhmFyn6TxQDQyZyEbNm1l5V1nUc4HC24NaqJWqhLA3bo4ZCdL+BQsQtnDoDFwhgj/R4wE+qSyIFvEsTYtWa2F+WFCiC6oOFVtLAdfAIBq3MdN4FHbRc8i5GIESfKFKwh6DSkC1AJs7ep5x6B2oR7A5Lq7gdgZD5xm9KrsvoiiIQXCH+AU/XtVP8aHY3n9GYUeMtxPI2ckEyx220n3BsxxGNPSXfiiFEfVpGRkKTlKMOhvoR/EG5lBHWxQ3zbO/XAkpHVBEUFAjqMGZ0R1qFe7AepSUtUdAGbmuBbps45HaIRHHDA7U6DflBSshErSpzRm8R31unCDDnyYeQkfrYOlJm7QEsOcB0RZ8I3eUQ8KAb508hRi34xnmPMNjqFRBDPe0e8vFjtJZ8T6RkFgXOChwMVMqexW4OfhjExjAPxAzOnMOoFbsZnNmpNM8eXgOgk9kdTiOJrsSfLBKxEQrALr+3ZwRVQLwibnxwmq9+AILnne/nXMQTxuvDspSCndsnTUD9wvNjFMg30g5nwSb42xX0vjtZIA4hsngXwzI49qDQM8sRllgJKZHQYXZV58iR0HnrJEVq8jkdQyB3XrzuQAXmxqjvU5wQd6ufFGOl5fp7GHdwLLgd2cBlDokzNVKanDsRDfBLaQcT3k+bFki9tZkKJ2WW+tuRZjGLhLfIsKKBIL/GhCfYXNLS9IRiGHMWBKH4q6YMlhzabqxHEpoednJUT0VSquLJk4W9jE1Emt8GTeD7KclTBxTcje4YcU0ZEfJ9D6kLZtj0yDQtetBGDI8tqXOJPfHsV611yCtA4QgL5Pl7ybiIbKPpkucCWmQBihDqwJGt8tt1q7Bi7LcjNfIzElo8ptKuBD6xaF0/ZgdalPuaV60Brtw+0ArygEWFwvNJWKr4erCUvj45C/OMYWuWlWNoQHLhAKOKQQS9JYHtrfCmQ8VtDKKtzb5njlDsfUAcY7z7+5+rrz1dPv149e/6ff/xq9fv3Vj95Hz7abfilwBe/vPvzN3LXUghN7KmHxcIm7VbLaG6DA6YkxG2ui7rvxg4TtCdPRLVPx0j1p2LQ6fU7x4M2OFqOmIjzTiLmQTKwlzTOhmO5GTGROGk9cRDJYk2EvmxcQLuYl3gZnbwVvcZF7jx+n6C0xauXf3j18sW90spghZLTqBnbNcN8W8kxm7zkGBtLDm/xZWOnLhDmfs2An0aOucSDzuAeBH1caqe+azVNY9/Y2zPMZP1AS/x6E1MZUpom9qVekpOkDo0DFi5TF8iPE1D4/wSCJYVlROQGylX/9uHrv3xS4FLWVZSiFlgcjUPpTXoyEKpPzibaeHR+1ulpk96Y+0mG5fik8jcwq9nTuMo7zXrUFVxqE1Wqe6NgecbjkMaLtYyRUTdwbswd62hJUthmfWkZtoFfndrnP90koHaifOY8IMxqdyeaH6ROJmiogEhSDlch+Nk3//r7B6sXX6ye/e7uw5+tnn+8+uh5QY+aLb3HgOtCgOSHqSdDFlOVpURBF2Nh0yvjh7lKooi8BzylJGCRZZo7ov9TQwSyJlcn/kd9H6qb0CzMBvQSBX3Pjnq3TAWrdYL0IgEWurChsNKsU04JMi9n5v33b3579+u/3n361esP/rR69sfVzz999fKL118+l5F098lXdx99qTJ3ObmLtfD+W7Z8mrjQORqPMI2Xae3bp7/QAso06C+0WGSZb59+llPGFyo6kUwz9G/pQopLWGPNC3M5LbeUdA0FuVRE1voOL0vNlEMVJrogTjbJuzWuCppQTQDf6U9qcYQ1Cq3Td2EnReZM+H+VUyKyTJ7uGQ2zoVC5Gr6FqR3lTH/s0antaQkgrkslloLUmwUyXjHf8WDUPhxkLHIRo9CF25XB73z8A/WjpINMLwYZBVDo65zY45faNbZ1CCVfuRSmq+vh7NDlr4KWYRhmTfzkSleBA+7YYSg7nEA9LY7jBXS7yRX4flw8ruT62xPZiuY73mzc7xZxGOdQKGhFmBMELrKSgmSG6kf8Jiq71RNummwIWOFBBsyhXg9lx3RN4Bh0nmx6YUjDjRknQxK2ITTKkEX0zOIpj86nlE21m51VQkiyXPrB2/I0GdIu9jCr/LSWSA+h632oLJx9VdF+NPJcZcxqN4vULJmC/Psid5SqizkMQ2iF+GNE5QfBAQmu+tV2b7Ucd8fZ39k3W81Wa3u6P3N3m7vid6tlzngzKJTyqyZXwW8i/JpWbRJoAIvi2aX6DK7ZFbVJAwtBfu8ES4mAVIk9HaMjEkbsMU9R6ktSnqSUJ7IdfmztyJ73sRwLBvmh3pzVXHph0Ul6YfIlmnoD4pOKN1MjyUFFJeAFi4VsF6ueJ5S8E3wLzWxOAyTr6Y+gnPHrVTVtMqggx6fyia5xPK2sTk+ETwHnfvUw6Z4LfdnDpcWrLvH+jwWIxuuhKvpBRC7nrOq5Nvb3m3gXN2qNmePUtmFQg2I8rbn2bN80jFnT5X/ASZVDcSD4puIkvKSQKLa96nJ66Q9z1n8BCFNQZNEbAAA=</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +54,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +87,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -376,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,147 +392,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2">
-        <v>-8</v>
+        <v>-149</v>
       </c>
       <c r="B1" s="2">
-        <v>-10</v>
+        <v>-18024</v>
       </c>
       <c r="C1" s="2">
-        <v>-13</v>
+        <v>-143</v>
       </c>
       <c r="D1" s="2">
-        <v>-9</v>
+        <v>-145</v>
       </c>
       <c r="E1" s="2">
-        <v>-5</v>
+        <v>-150</v>
       </c>
       <c r="F1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="G1" s="2">
-        <v>-12</v>
-      </c>
-      <c r="H1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="I1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="J1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="K1" s="2">
-        <v>-8</v>
-      </c>
-      <c r="L1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="M1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="N1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="O1" s="2">
-        <v>-13</v>
-      </c>
-      <c r="P1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="R1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="S1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="T1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="U1" s="2">
-        <v>-12</v>
-      </c>
-      <c r="V1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="W1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="X1" s="2">
-        <v>-16</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>-125</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>-143</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>-144</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>-142</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>-133</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>-133</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>-134</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>-145</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>-137</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>-143</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>-131</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>-139</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>-144</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>-154</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>-158</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>-151</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>-153</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>-149</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>-18024</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>-143</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>-145</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>-150</v>
-      </c>
-      <c r="AV1" s="2">
         <v>-153</v>
       </c>
     </row>
@@ -532,4 +414,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>6</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669903AF-482E-482B-87EA-920CC778CE21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_72.xlsx
+++ b/Testdata/TC_72.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0RsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD3d12Lk5U06v4kmBhx1HskJl9Qe3uclyku8t0Vyfx20irZWGWfWJ3xcLCMryAELPsA0hoBy3/ZYUzwxN/gVOXvtqZocMoynSd75xTVafOrSronVvf065xGBEaPNoy68aWhgOHuiS4fLQVs1nN3N16x0K9Wwd7p3Zo+5gBswZSQXRwG5FHW3PGFge6fnNzU79p1ml4qTcMw9QfDwdjZ459u0aCiNmBg7dSKfftUlsW6rj+EDPbtZktJR9t9cf9egcTpwu0oR3Ylzist+OIBDiKegEjjOCIS4bYZrjTHf5Absxq1HfrJtLX6BlnOyaeK/kKnJKu+GBaPCE+thpGw6gZrVpje2LsHWzvHew06vvmzruJYMqIBnbExji8Jo4gjJntL4S40WpsG3vbezsNpG9kAl2ZASw08twzfE0i7Haw50WVLKKrAzx0GOy6mjENpOdklaKHL+E4tBfzCWEerip+REPsgKEeNPcJvhmFyn6TxQDQyZyEbNm1l5V1nUc4HC24NaqJWqhLA3bo4ZCdL+BQsQtnDoDFwhgj/R4wE+qSyIFvEsTYtWa2F+WFCiC6oOFVtLAdfAIBq3MdN4FHbRc8i5GIESfKFKwh6DSkC1AJs7ep5x6B2oR7A5Lq7gdgZD5xm9KrsvoiiIQXCH+AU/XtVP8aHY3n9GYUeMtxPI2ckEyx220n3BsxxGNPSXfiiFEfVpGRkKTlKMOhvoR/EG5lBHWxQ3zbO/XAkpHVBEUFAjqMGZ0R1qFe7AepSUtUdAGbmuBbps45HaIRHHDA7U6DflBSshErSpzRm8R31unCDDnyYeQkfrYOlJm7QEsOcB0RZ8I3eUQ8KAb508hRi34xnmPMNjqFRBDPe0e8vFjtJZ8T6RkFgXOChwMVMqexW4OfhjExjAPxAzOnMOoFbsZnNmpNM8eXgOgk9kdTiOJrsSfLBKxEQrALr+3ZwRVQLwibnxwmq9+AILnne/nXMQTxuvDspSCndsnTUD9wvNjFMg30g5nwSb42xX0vjtZIA4hsngXwzI49qDQM8sRllgJKZHQYXZV58iR0HnrJEVq8jkdQyB3XrzuQAXmxqjvU5wQd6ufFGOl5fp7GHdwLLgd2cBlDokzNVKanDsRDfBLaQcT3k+bFki9tZkKJ2WW+tuRZjGLhLfIsKKBIL/GhCfYXNLS9IRiGHMWBKH4q6YMlhzabqxHEpoednJUT0VSquLJk4W9jE1Emt8GTeD7KclTBxTcje4YcU0ZEfJ9D6kLZtj0yDQtetBGDI8tqXOJPfHsV611yCtA4QgL5Pl7ybiIbKPpkucCWmQBihDqwJGt8tt1q7Bi7LcjNfIzElo8ptKuBD6xaF0/ZgdalPuaV60Brtw+0ArygEWFwvNJWKr4erCUvj45C/OMYWuWlWNoQHLhAKOKQQS9JYHtrfCmQ8VtDKKtzb5njlDsfUAcY7z7+5+rrz1dPv149e/6ff/xq9fv3Vj95Hz7abfilwBe/vPvzN3LXUghN7KmHxcIm7VbLaG6DA6YkxG2ui7rvxg4TtCdPRLVPx0j1p2LQ6fU7x4M2OFqOmIjzTiLmQTKwlzTOhmO5GTGROGk9cRDJYk2EvmxcQLuYl3gZnbwVvcZF7jx+n6C0xauXf3j18sW90spghZLTqBnbNcN8W8kxm7zkGBtLDm/xZWOnLhDmfs2An0aOucSDzuAeBH1caqe+azVNY9/Y2zPMZP1AS/x6E1MZUpom9qVekpOkDo0DFi5TF8iPE1D4/wSCJYVlROQGylX/9uHrv3xS4FLWVZSiFlgcjUPpTXoyEKpPzibaeHR+1ulpk96Y+0mG5fik8jcwq9nTuMo7zXrUFVxqE1Wqe6NgecbjkMaLtYyRUTdwbswd62hJUthmfWkZtoFfndrnP90koHaifOY8IMxqdyeaH6ROJmiogEhSDlch+Nk3//r7B6sXX6ye/e7uw5+tnn+8+uh5QY+aLb3HgOtCgOSHqSdDFlOVpURBF2Nh0yvjh7lKooi8BzylJGCRZZo7ov9TQwSyJlcn/kd9H6qb0CzMBvQSBX3Pjnq3TAWrdYL0IgEWurChsNKsU04JMi9n5v33b3579+u/3n361esP/rR69sfVzz999fKL118+l5F098lXdx99qTJ3ObmLtfD+W7Z8mrjQORqPMI2Xae3bp7/QAso06C+0WGSZb59+llPGFyo6kUwz9G/pQopLWGPNC3M5LbeUdA0FuVRE1voOL0vNlEMVJrogTjbJuzWuCppQTQDf6U9qcYQ1Cq3Td2EnReZM+H+VUyKyTJ7uGQ2zoVC5Gr6FqR3lTH/s0antaQkgrkslloLUmwUyXjHf8WDUPhxkLHIRo9CF25XB73z8A/WjpINMLwYZBVDo65zY45faNbZ1CCVfuRSmq+vh7NDlr4KWYRhmTfzkSleBA+7YYSg7nEA9LY7jBXS7yRX4flw8ruT62xPZiuY73mzc7xZxGOdQKGhFmBMELrKSgmSG6kf8Jiq71RNummwIWOFBBsyhXg9lx3RN4Bh0nmx6YUjDjRknQxK2ITTKkEX0zOIpj86nlE21m51VQkiyXPrB2/I0GdIu9jCr/LSWSA+h632oLJx9VdF+NPJcZcxqN4vULJmC/Psid5SqizkMQ2iF+GNE5QfBAQmu+tV2b7Ucd8fZ39k3W81Wa3u6P3N3m7vid6tlzngzKJTyqyZXwW8i/JpWbRJoAIvi2aX6DK7ZFbVJAwtBfu8ES4mAVIk9HaMjEkbsMU9R6ktSnqSUJ7IdfmztyJ73sRwLBvmh3pzVXHph0Ul6YfIlmnoD4pOKN1MjyUFFJeAFi4VsF6ueJ5S8E3wLzWxOAyTr6Y+gnPHrVTVtMqggx6fyia5xPK2sTk+ETwHnfvUw6Z4LfdnDpcWrLvH+jwWIxuuhKvpBRC7nrOq5Nvb3m3gXN2qNmePUtmFQg2I8rbn2bN80jFnT5X/ASZVDcSD4puIkvKSQKLa96nJ66Q9z1n8BCFNQZNEbAAA=</t>
+          <t>+hkAAB+LCAAAAAAAAAOlGU1v48b1rxA+NQeJpOS1vcYsA0uyXaGSZVh0vZtLMSLHFmuSo5BD27rtpUizaU5NguY7e0pRdNMcWqDItul/CSrv9tS/0DcfHH5I3kTbhWFz3te8ee/N+5hFb95EoXFFkjSg8YMNu2ltGCT2qB/EFw82MnbesLc23nTQ/o1HwmOc4IgwIDaAK053b9LgwcaUsdmuaV5fXzev202aXJgty7LNh8PB2JuSCDeCOGU49siG5vJ/nGvDQV0/GhKGfcyw5Hyw0R/3m10SeD2ADXGML0jS7GRpEJM03Y9ZwAKScs6EYEa6veEv5cGcVnOraSNzCV5QdrIg9CVdhVLCFR1sS9wgIk7Lsnca1k6jbbt2a9fa3t20mu2t9ls5oyZEA5yyMUmuAk8AxgxHM8Fu7bRtu2Vtb1rIXEkEsgoDOGgU+ifkKkiJ3yVhmK5lEVM5cM9jcOr1jAnqlXiVoNdX4TDBs6kbsJCsp0an5xpRrHQphDjogCbEA/u9lkpH5HqUKLO6swFg3WmQsHkPz9eWdZqSZDTjRlqP1UE9GrO9kCTsdAa+Jj6EAiAclmQEmXcgC6ZekHrwHcQZ8Z1zHKZlpgoSndHkMp1hjxzBPTa5jOs4pNiHgGNBygIvLQQsYdBxQmcgEnbv0NA/ALE59QqMlt2Pwch84w6ll3XxVSQSfhUeBq9GWMtfgqPxlF6P4nA+ziaplwQT4vc6OfVKHOJXUnF3s5TRCLQoQEjCSpDh0JzDP7iFdQzqES+IcHgcgiVTpw2CKgC0lzF6HrAuDbMo1iatQdEZHMolN0z5WS/RCBwcc7vTuB/XhKzEVTlO6HUeO8twYYYSeC/18jhbRtSJewDLHbiMET7hhzwIQqgRZW+UoNW4GE8JYSuDQmIQT4cHvOo4nTnfE5kFBEFwQoQD1LHv399uWDb8uJa1K35gZ41G+7EvPqDGbDXsFs/bBV2OREdZNJrALb4SZ3JswNVACE4RdkIcXwL0LGDTo71c+xUYJM98J/0yDsF9nYV4LsDaLmUY6sdemPlEpoF+fC5ikuumqO/EoyXQAG62g3A8d+czng7MOyh65BxnIVQoBonkosgRNTDaSy/rNGUQOk3C3McOr/8pNACeHzU9SJG8yDU9GnGACXX3bIzMMj3P8x7Zjy8GOL7IIJNqO9bhOsJ4DnATHKf8ODpx1oJtNRHK/SITuiOdNcpEOElnUcAis0aHXBLNaILDIRgmOMhiUTRVVQALDzGbqhVc3pB4uZHNglVzVTXLFf8xMnEN5TF4li9fwxJUUPHDyF6jRFQAET/nkPpQ7nEYTJJKmK3EgcuKIpgHHD/emgUx9wI0nJBhfkHmvAspFgrOo9axc4RYoS6o5IxPNnda96ytHUjefI3EkQ8ptLlxBKRGj0zYrtGjEeGlbdfodHaNCnpG04CBe6Wt1AV8bSllfnSQkLczaLHnQrUhBHAFUMVDir0IYhwu0WlEQe8Moe5Ow3mJUp58QD0gvP3gX4vvPls8/m7x5Ol///HJ4tN/Ln7zNXx0OvBLIZ/94fbP38tTSybk4klIhGJuZ2fHam9CAGoQUnkDyr+feUzAHj0S7YBeI9XXikV3v989HHREotHAnJ23Ghm/JAM8p1mxHMvDiI2Ep808QCSJ4+aJS60r2B7hPYC8nbyFvSJV6jL+LkZpixfPv37x/Nmd3MpgRdGBWtNqWJs/oSbZbV6TrJU1iY8GsvPLB497fPCw2yXiGg06gfkJGj1tp77vtG3rvrW9bdk6yfs6rlcR1VFKkosvzBqfBHVpFrNkrkOgvM6RIv5duCwaLW9EaaFC9W/vvfzLhxUqZV0FqUoB5WiWyGgy84UQfXTiGuPR6Ul333D3xzxOClyJTgp/BbHaXd+rctAs37pKSK2CSnGvZKzveJjQbLaUMQroCsqVuWMZW+MUtllWrcCtoFde++y3qxjUSVTMnMYB07NcGYYqGAkq4dUV/Pj7f//9ncWzLxdPvrp9793F0w8W7z+tyFG76UEHQhcuSHmpIxmymKosNQg6GwubXlq/KlUSBeRN4jENYpY6tn1PNIhqiYDX5uLEX9SPoLoJycJsAK9B0M9xun/D1GV1jpBZBYCiMwyFlRattAbIvFyY9z+ff3H76V9vP/r25Tt/Wjz54+J3H714/uXLb57Km3T74be373+jMnc9uQtdeIMuOz5DTHyewW+Ywcu08cPj3xsxZQb0F0YmsswPjz8uCeOKik6kkAz9m1akqsISaZmZ8xklVbQOFT7NImt9l5eltqZQhYnOAq/Y5K0GFwVNqCEQP+u7jSwlBoXW6Q04SZW4YP6pfIpFlsnjbatltxRWasOPMMFpyfSHIZ3g0MgRYp6qkVS4Xs1Q0Ir9Dgejzt6gIJFKjBIfxi+LD4X8A+X9Iy8T/TRf6SmigAAWejwvC/kEvES2jNKSS+nMVLPk+Z7PXxYdyxLDWrXmVShgIE8S2e3E6nlynM2g883n5bvx4iWm1Oseyba03P0W636viod1CQvFrYrmAIEXGUqhZLbqp3xslZ3rETdNsQRc5fUGzKFeIGX3dBWAS0yeePaThCYrs0+BycmG0DRDRjELi2sa4VPZYPuFr3JAnvH0hxzz1Alpj4SErfc8ZxbcQ+iAX5cXfL8uaz8dhb4y5npThjZLIaD8RskD5f99opTBtpck0Czx94y13xTzKfUEhts1tZFHEYx82oPd1aPfQZCk7CHPBOpLQh5pyCPZdT50Nrdlb/lQAgSF/FCHVNLNipr51WXypZiGgyAK1pwArfx+V4WALWcz2Zb114sUXlqOyA00jSUJkBQnv4aywceY9aTJgIVcqvn5w0waXEzZuoptTzDxycRqeBPSamz60NzfJwQmAht+Y68FY8Q9/qqjhEPmCMj1mpuYucOK/8Fx/gcRbgbr+hkAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,14 +54,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +79,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,21 +384,147 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2">
+        <v>-8</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="C1" s="2">
+        <v>-13</v>
+      </c>
+      <c r="D1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="E1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="G1" s="2">
+        <v>-12</v>
+      </c>
+      <c r="H1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="K1" s="2">
+        <v>-8</v>
+      </c>
+      <c r="L1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="M1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="N1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="O1" s="2">
+        <v>-13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="R1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="S1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="T1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="U1" s="2">
+        <v>-12</v>
+      </c>
+      <c r="V1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="W1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="X1" s="2">
+        <v>-16</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>-125</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>-143</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>-144</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>-142</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>-133</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>-133</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>-134</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>-145</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>-137</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>-143</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>-131</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>-139</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>-144</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>-154</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>-158</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>-151</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>-153</v>
+      </c>
+      <c r="AQ1" s="2">
         <v>-149</v>
       </c>
-      <c r="B1" s="2">
+      <c r="AR1" s="2">
         <v>-18024</v>
       </c>
-      <c r="C1" s="2">
+      <c r="AS1" s="2">
         <v>-143</v>
       </c>
-      <c r="D1" s="2">
+      <c r="AT1" s="2">
         <v>-145</v>
       </c>
-      <c r="E1" s="2">
+      <c r="AU1" s="2">
         <v>-150</v>
       </c>
-      <c r="F1" s="2">
+      <c r="AV1" s="2">
         <v>-153</v>
       </c>
     </row>
@@ -414,37 +532,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>6</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669903AF-482E-482B-87EA-920CC778CE21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>